--- a/10/2/Tasa de Política Monetaria 2021 - Diaria.xlsx
+++ b/10/2/Tasa de Política Monetaria 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Serie</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -846,6 +849,35 @@
         <v>5</v>
       </c>
     </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>3.75</v>
+      </c>
+      <c r="C15">
+        <v>4.5</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5.25</v>
+      </c>
+      <c r="F15">
+        <v>5.5</v>
+      </c>
+      <c r="G15">
+        <v>5.5</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
